--- a/assets/files/students.xlsx
+++ b/assets/files/students.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,12 +488,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://sun9-20.userapi.com/s/v1/if1/3EluUAsqqljPPoKqlZWHyvuYwUypTN7Z4yqSFE5r_Hzph4p261BJdFcCXZM2KRJKiKZDKNzr.jpg?size=50x0&amp;quality=96&amp;crop=514,119,337,337&amp;ava=1</t>
+          <t>https://sun9-37.userapi.com/s/v1/if1/rtCiFLBbcqrtzdLrNgs6wqrq4q0TXwv7SwzyvSyKZwG2S7KFWfvDUXHZPQu_JFfxKwqpDJrq.jpg?size=50x0&amp;quality=96&amp;crop=144,144,1148,1148&amp;ava=1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Стебунов Денис:Дуров Павел</t>
+          <t>Стебунов Денис:Стебунов Денис</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -518,17 +518,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Дизайн</t>
+          <t>Программирование, Инженерное дело</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Творческий</t>
+          <t>Технический, ИТ</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2, 3</t>
+          <t>24, 47, 310</t>
         </is>
       </c>
       <c r="J2" t="b">
@@ -582,6 +582,56 @@
         </is>
       </c>
       <c r="J3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://sun9-20.userapi.com/s/v1/if1/3EluUAsqqljPPoKqlZWHyvuYwUypTN7Z4yqSFE5r_Hzph4p261BJdFcCXZM2KRJKiKZDKNzr.jpg?size=50x0&amp;quality=96&amp;crop=514,119,337,337&amp;ava=1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Дуров Павел:Дуров Павел</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ИКНТ</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3532704/90002</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>vk.com/1</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>durov.dv@edu.spbstu.ru</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Программирование, Инженерное дело</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Технический, ИТ</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1, 2, 3</t>
+        </is>
+      </c>
+      <c r="J4" t="b">
         <v>1</v>
       </c>
     </row>
